--- a/ExcelFiles/Invalid_Add_Employee.xlsx
+++ b/ExcelFiles/Invalid_Add_Employee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Clone_pytest\Clone_pytest\Pytest_OrangeHRM\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Clone_pytest\Pytest_OrangeHRM\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07215FF0-EDB2-4F5C-A94A-2DA38897F21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B872A2-5C84-4310-92AA-A170636FFBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>${invalid_fname}</t>
-  </si>
-  <si>
-    <t>${invalid_mname}</t>
-  </si>
-  <si>
-    <t>${invalid_lname}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>aac</t>
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>invalid_lname</t>
+  </si>
+  <si>
+    <t>invalid_mname</t>
+  </si>
+  <si>
+    <t>invalid_fname</t>
+  </si>
+  <si>
+    <t>emp_id</t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -368,27 +371,31 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
